--- a/MAP/European Network of Ethnobiology.xlsx
+++ b/MAP/European Network of Ethnobiology.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dauam-my.sharepoint.com/personal/jimena_mateo_uam_es/Documents/Documents/Estudios/Doctorado/Colaboraciones/European Network of Ethnobiology/european_ethnobiology/MAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAC4F44B-79F9-4EE5-8DD7-B22CCB24A898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{DAC4F44B-79F9-4EE5-8DD7-B22CCB24A898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4860564B-3669-AA47-BB9A-A84E5B80EE4E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09740429-8AA6-42FE-A839-6D384F2AFAFA}"/>
+    <workbookView xWindow="4640" yWindow="900" windowWidth="33020" windowHeight="18780" xr2:uid="{09740429-8AA6-42FE-A839-6D384F2AFAFA}"/>
   </bookViews>
   <sheets>
     <sheet name="European Network of Ethnobiolog" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'European Network of Ethnobiolog'!$A$1:$Y$44</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1821,7 +1824,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1955,11 +1958,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2700,15 +2698,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99047F4D-EE5C-4519-B72F-531AFA563268}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="51.1640625" customWidth="1"/>
+    <col min="19" max="19" width="40.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>468</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>478</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -3139,7 +3142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>316</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -3360,7 +3363,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>228</v>
       </c>
@@ -3472,7 +3475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>253</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>302</v>
       </c>
@@ -3593,7 +3596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>328</v>
       </c>
@@ -3643,7 +3646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>337</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>369</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>393</v>
       </c>
@@ -3823,7 +3826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>404</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>425</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>446</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -4062,7 +4065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>192</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>351</v>
       </c>
@@ -4180,7 +4183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>511</v>
       </c>
@@ -4239,7 +4242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>417</v>
       </c>
@@ -4283,7 +4286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>205</v>
       </c>
@@ -4339,7 +4342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -4457,7 +4460,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>216</v>
       </c>
@@ -4563,7 +4566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>236</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -4681,7 +4684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>361</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>380</v>
       </c>
@@ -4796,7 +4799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>435</v>
       </c>
@@ -4855,7 +4858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>456</v>
       </c>
@@ -4914,7 +4917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" ht="304" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>498</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -5020,7 +5023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>247</v>
       </c>
@@ -5061,7 +5064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -5117,7 +5120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>291</v>
       </c>
@@ -5164,7 +5167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>488</v>
       </c>
@@ -5212,6 +5215,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y44" xr:uid="{99047F4D-EE5C-4519-B72F-531AFA563268}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="France"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y44">
     <sortCondition ref="K2:K44"/>
   </sortState>

--- a/MAP/European Network of Ethnobiology.xlsx
+++ b/MAP/European Network of Ethnobiology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dauam-my.sharepoint.com/personal/jimena_mateo_uam_es/Documents/Documents/Estudios/Doctorado/Colaboraciones/European Network of Ethnobiology/european_ethnobiology/MAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D6427C8D-5A2E-4A27-BBF2-27E5667F7217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8725DB0E-CDDF-DB47-9C9C-29D9C7C74036}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{D6427C8D-5A2E-4A27-BBF2-27E5667F7217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D79B363-9180-8545-B318-59E8D658ECD7}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="960" windowWidth="29420" windowHeight="20640" xr2:uid="{590E6805-1AD1-4CD2-80C3-8D396DA581B3}"/>
+    <workbookView xWindow="-26140" yWindow="3220" windowWidth="24500" windowHeight="18380" xr2:uid="{590E6805-1AD1-4CD2-80C3-8D396DA581B3}"/>
   </bookViews>
   <sheets>
     <sheet name="European Network of Ethnobiolog" sheetId="1" r:id="rId1"/>
@@ -1768,15 +1768,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4968A0-2733-4B0E-9FFF-6A4702B1C1C4}">
   <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="33.83203125" customWidth="1"/>
-    <col min="8" max="8" width="36" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
